--- a/NewChance/常见算法.20210425204046766.xlsx
+++ b/NewChance/常见算法.20210425204046766.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode" sheetId="5" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">常见算法0419!$A$1:$C$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">常见算法0419!$A$1:$C$69</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="134">
   <si>
     <t>#1047 删除字符串中的所有相邻重复项</t>
   </si>
@@ -1537,6 +1537,32 @@
     </r>
   </si>
   <si>
+    <t>两数相加</t>
+  </si>
+  <si>
+    <r>
+      <t>取余取模乘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1826,24 +1852,48 @@
   </si>
   <si>
     <r>
+      <t>数组</t>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全排列</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>递归</t>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字符串全排列</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>递归，取出一个数，与剩下的字符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>列表全排列</t>
     </r>
   </si>
   <si>
@@ -1853,12 +1903,31 @@
     <t>字典</t>
   </si>
   <si>
-    <t>不开辟空间反转字符串</t>
+    <r>
+      <t>不开辟空间</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>反转字符串/列表</t>
+    </r>
   </si>
   <si>
     <t>s[i]与s[n-1-i]交换</t>
   </si>
   <si>
+    <t>部分反转字符串/列表</t>
+  </si>
+  <si>
+    <t>for i in range(n-1,-1,-1)</t>
+  </si>
+  <si>
     <t>动态规划</t>
   </si>
   <si>
@@ -1888,6 +1957,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>F(n)=F(n - 1)+F(n - 2),F(0)=0</t>
     </r>
     <r>
@@ -1908,6 +1983,15 @@
       </rPr>
       <t>F(1)=1</t>
     </r>
+  </si>
+  <si>
+    <t>贪心算法</t>
+  </si>
+  <si>
+    <t>跳跃游戏</t>
+  </si>
+  <si>
+    <t>局部最优解即全局最优解</t>
   </si>
   <si>
     <t>日期</t>
@@ -1938,7 +2022,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2005,39 +2089,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2046,51 +2106,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2112,16 +2135,22 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2132,6 +2161,61 @@
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2186,6 +2270,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -2208,7 +2300,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2220,31 +2420,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2262,55 +2456,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2322,7 +2468,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2334,61 +2480,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2468,8 +2560,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2485,41 +2577,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2548,6 +2605,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2562,6 +2634,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2570,10 +2662,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2582,133 +2674,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2758,6 +2850,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2773,16 +2868,13 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3110,7 +3202,7 @@
   <dimension ref="A2:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -3381,10 +3473,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -3682,184 +3774,213 @@
       </c>
     </row>
     <row r="35" ht="14.5" spans="1:3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" ht="29" spans="1:3">
-      <c r="A36" s="15" t="s">
+      <c r="A35" s="15"/>
+      <c r="B35" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="C35" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="5"/>
-    </row>
-    <row r="37" ht="14.5" spans="1:3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+    </row>
+    <row r="36" ht="14.5" spans="1:3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" ht="29" spans="1:3">
+      <c r="A37" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" ht="14.5" spans="1:3">
-      <c r="A38" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="5" t="s">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" ht="14.5" spans="1:3">
+      <c r="A39" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="39" ht="14.5" spans="1:3">
-      <c r="A39" s="6"/>
       <c r="B39" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="5"/>
+      <c r="C39" s="5" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="40" ht="14.5" spans="1:3">
       <c r="A40" s="6"/>
       <c r="B40" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C40" s="5"/>
     </row>
-    <row r="41" ht="14.5" spans="1:4">
+    <row r="41" ht="14.5" spans="1:3">
       <c r="A41" s="6"/>
-      <c r="B41" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="5" t="s">
+      <c r="B41" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D41" t="s">
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" ht="14.5" spans="1:4">
+      <c r="A42" s="6"/>
+      <c r="B42" s="13" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" ht="14.5" spans="1:3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="3"/>
+      <c r="C42" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="43" ht="14.5" spans="1:3">
-      <c r="A43" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" s="5" t="s">
+      <c r="A43" s="3"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" ht="14.5" spans="1:3">
+      <c r="A44" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="6"/>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="45" ht="14.5" spans="1:3">
+    <row r="45" spans="1:3">
       <c r="A45" s="6"/>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="46" ht="14.5" spans="1:3">
       <c r="A46" s="6"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="18" t="s">
+      <c r="B46" s="18" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="C46" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" ht="14.5" spans="1:3">
       <c r="A47" s="6"/>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="18"/>
+      <c r="C47" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="6"/>
+      <c r="B48" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="48" ht="14.5" spans="1:3">
-      <c r="A48" s="7"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="5" t="s">
+    <row r="49" ht="14.5" spans="1:3">
+      <c r="A49" s="7"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="49" ht="14.5" spans="1:3">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="19"/>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C50" s="5" t="s">
+    <row r="50" ht="14.5" spans="1:3">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="20"/>
+    </row>
+    <row r="51" ht="14.5" spans="1:3">
+      <c r="A51" s="4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="21"/>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="13" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="23"/>
-      <c r="B52" s="22" t="s">
+      <c r="A52" s="6"/>
+      <c r="B52" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="21" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" ht="14.5" spans="1:3">
-      <c r="A53" s="3"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="3"/>
+    <row r="53" spans="1:3">
+      <c r="A53" s="7"/>
+      <c r="B53" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="54" ht="14.5" spans="1:3">
-      <c r="A54" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C54" s="5" t="s">
+      <c r="A54" s="15"/>
+      <c r="B54" s="22" t="s">
         <v>118</v>
       </c>
+      <c r="C54" s="21" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="55" ht="14.5" spans="1:3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C55" s="5" t="s">
+      <c r="A55" s="3"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" ht="14.5" spans="1:3">
+      <c r="A56" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="56" ht="14.5" spans="1:3">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
+      <c r="B56" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" ht="14.5" spans="1:3">
+      <c r="A57" s="7"/>
+      <c r="B57" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" ht="14.5" spans="1:3">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C67">
+  <autoFilter ref="A1:C69">
     <extLst/>
   </autoFilter>
   <mergeCells count="17">
@@ -3869,20 +3990,20 @@
     <mergeCell ref="A15:A23"/>
     <mergeCell ref="A25:A29"/>
     <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A56:A57"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B36" r:id="rId1" display="https://blog.csdn.net/qq_39422642/article/details/78988976" tooltip="https://blog.csdn.net/qq_39422642/article/details/78988976"/>
+    <hyperlink ref="B37" r:id="rId1" display="https://blog.csdn.net/qq_39422642/article/details/78988976" tooltip="https://blog.csdn.net/qq_39422642/article/details/78988976"/>
     <hyperlink ref="B33" r:id="rId2" display="数组中重复的数字" tooltip="https://leetcode-cn.com/problems/shu-zu-zhong-zhong-fu-de-shu-zi-lcof"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3896,8 +4017,8 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -3908,24 +4029,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B2" s="1">
         <v>3.169</v>

--- a/NewChance/常见算法.20210425204046766.xlsx
+++ b/NewChance/常见算法.20210425204046766.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12530" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode" sheetId="5" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">常见算法0419!$A$1:$C$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">常见算法0419!$A$1:$C$73</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="140">
   <si>
     <t>#1047 删除字符串中的所有相邻重复项</t>
   </si>
@@ -1541,6 +1541,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>取余取模乘</t>
     </r>
     <r>
@@ -1563,6 +1569,9 @@
     </r>
   </si>
   <si>
+    <t>只出现一次的数字</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1676,6 +1685,9 @@
   </si>
   <si>
     <t>字节跳动</t>
+  </si>
+  <si>
+    <t>字符串相加</t>
   </si>
   <si>
     <t>堆栈</t>
@@ -1852,6 +1864,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>数组</t>
     </r>
     <r>
@@ -1875,6 +1893,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>递归，取出一个数，与剩下的字符</t>
     </r>
     <r>
@@ -1904,6 +1928,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>不开辟空间</t>
     </r>
     <r>
@@ -1928,6 +1959,9 @@
     <t>for i in range(n-1,-1,-1)</t>
   </si>
   <si>
+    <t>倒数第k个节点</t>
+  </si>
+  <si>
     <t>动态规划</t>
   </si>
   <si>
@@ -1992,6 +2026,15 @@
   </si>
   <si>
     <t>局部最优解即全局最优解</t>
+  </si>
+  <si>
+    <t>数学逻辑</t>
+  </si>
+  <si>
+    <t>杨辉三角</t>
+  </si>
+  <si>
+    <t>就按照其数学逻辑 row[j] = result[i-2][j-1] + result[i-2][j]</t>
   </si>
   <si>
     <t>日期</t>
@@ -2017,10 +2060,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -2082,10 +2125,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2096,17 +2148,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2114,13 +2180,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2149,8 +2208,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2159,37 +2219,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2204,18 +2233,32 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2300,25 +2343,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2330,19 +2385,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2360,19 +2415,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2384,13 +2457,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2402,85 +2499,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2557,26 +2600,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2605,17 +2657,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2635,22 +2683,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2662,10 +2705,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2674,137 +2717,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2856,6 +2899,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2876,6 +2922,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3211,233 +3260,233 @@
   </cols>
   <sheetData>
     <row r="2" ht="17.75" spans="1:3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="26" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="17.75" spans="1:3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" ht="17.75" spans="1:3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" ht="17.75" spans="1:3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" ht="17.75" spans="1:3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" ht="17.75" spans="1:3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" ht="17.75" spans="1:3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" ht="17.75" spans="1:3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="26" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" ht="17.75" spans="1:3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" ht="17.75" spans="1:3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" ht="17.75" spans="1:3">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" ht="17.75" spans="1:3">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="26" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" ht="17.75" spans="1:3">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="26" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" ht="17.75" spans="1:3">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" ht="17.75" spans="1:3">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" ht="17.75" spans="1:3">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" ht="17.75" spans="1:3">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" ht="17.75" spans="1:3">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="26" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" ht="17.75" spans="1:3">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="26" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" ht="17.75" spans="1:3">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="26" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" ht="17.75" spans="1:3">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="26" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3473,10 +3522,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -3774,7 +3823,7 @@
       </c>
     </row>
     <row r="35" ht="14.5" spans="1:3">
-      <c r="A35" s="15"/>
+      <c r="A35" s="7"/>
       <c r="B35" s="13" t="s">
         <v>91</v>
       </c>
@@ -3783,41 +3832,41 @@
       </c>
     </row>
     <row r="36" ht="14.5" spans="1:3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" ht="29" spans="1:3">
-      <c r="A37" s="16" t="s">
+      <c r="A36" s="15"/>
+      <c r="B36" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="C36" s="13"/>
+    </row>
+    <row r="37" ht="14.5" spans="1:3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" ht="29" spans="1:3">
+      <c r="A38" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="5"/>
-    </row>
-    <row r="38" ht="14.5" spans="1:3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="B38" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" ht="14.5" spans="1:3">
-      <c r="A39" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" s="5" t="s">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" ht="14.5" spans="1:3">
+      <c r="A40" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="B40" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="40" ht="14.5" spans="1:3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="5"/>
     </row>
     <row r="41" ht="14.5" spans="1:3">
       <c r="A41" s="6"/>
@@ -3826,161 +3875,198 @@
       </c>
       <c r="C41" s="5"/>
     </row>
-    <row r="42" ht="14.5" spans="1:4">
+    <row r="42" ht="14.5" spans="1:3">
       <c r="A42" s="6"/>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" ht="14.5" spans="1:4">
+      <c r="A43" s="6"/>
+      <c r="B43" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D42" t="s">
+      <c r="C43" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="43" ht="14.5" spans="1:3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="3"/>
+      <c r="D43" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="44" ht="14.5" spans="1:3">
-      <c r="A44" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B44" s="18" t="s">
+      <c r="A44" s="17"/>
+      <c r="B44" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" ht="14.5" spans="1:3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" ht="14.5" spans="1:3">
+      <c r="A46" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="6"/>
-      <c r="B45" s="18" t="s">
+      <c r="B46" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="46" ht="14.5" spans="1:3">
-      <c r="A46" s="6"/>
-      <c r="B46" s="18" t="s">
+    <row r="47" spans="1:3">
+      <c r="A47" s="6"/>
+      <c r="B47" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C47" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="47" ht="14.5" spans="1:3">
-      <c r="A47" s="6"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="19" t="s">
+    <row r="48" ht="14.5" spans="1:3">
+      <c r="A48" s="6"/>
+      <c r="B48" s="19" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="6"/>
-      <c r="B48" s="12" t="s">
+      <c r="C48" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" ht="14.5" spans="1:3">
+      <c r="A49" s="6"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="6"/>
+      <c r="B50" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" ht="14.5" spans="1:3">
-      <c r="A49" s="7"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="5" t="s">
+    <row r="51" ht="14.5" spans="1:3">
+      <c r="A51" s="7"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" ht="14.5" spans="1:3">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="20"/>
-    </row>
-    <row r="51" ht="14.5" spans="1:3">
-      <c r="A51" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C51" s="13" t="s">
+    <row r="52" ht="14.5" spans="1:3">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="21"/>
+    </row>
+    <row r="53" ht="14.5" spans="1:3">
+      <c r="A53" s="4" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="6"/>
-      <c r="B52" s="21" t="s">
+      <c r="B53" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C53" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="7"/>
-      <c r="B53" s="22" t="s">
+    <row r="54" spans="1:3">
+      <c r="A54" s="6"/>
+      <c r="B54" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C54" s="22" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="54" ht="14.5" spans="1:3">
-      <c r="A54" s="15"/>
-      <c r="B54" s="22" t="s">
+    <row r="55" spans="1:3">
+      <c r="A55" s="7"/>
+      <c r="B55" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C55" s="22" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="55" ht="14.5" spans="1:3">
-      <c r="A55" s="3"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="3"/>
-    </row>
     <row r="56" ht="14.5" spans="1:3">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="7"/>
+      <c r="B56" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="C56" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C56" s="5" t="s">
+    </row>
+    <row r="57" ht="14.5" spans="1:3">
+      <c r="A57" s="15"/>
+      <c r="B57" s="23" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="57" ht="14.5" spans="1:3">
-      <c r="A57" s="7"/>
-      <c r="B57" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>124</v>
-      </c>
+      <c r="C57" s="22"/>
     </row>
     <row r="58" ht="14.5" spans="1:3">
       <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
+      <c r="B58" s="18"/>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="23" t="s">
+    <row r="59" ht="14.5" spans="1:3">
+      <c r="A59" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B59" s="13" t="s">
+    </row>
+    <row r="60" ht="14.5" spans="1:3">
+      <c r="A60" s="7"/>
+      <c r="B60" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C60" s="5" t="s">
         <v>127</v>
       </c>
     </row>
+    <row r="61" ht="14.5" spans="1:3">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" ht="14.5" spans="1:3">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C69">
+  <autoFilter ref="A1:C73">
     <extLst/>
   </autoFilter>
   <mergeCells count="17">
@@ -3990,20 +4076,20 @@
     <mergeCell ref="A15:A23"/>
     <mergeCell ref="A25:A29"/>
     <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A59:A60"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B46:B47"/>
     <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B37" r:id="rId1" display="https://blog.csdn.net/qq_39422642/article/details/78988976" tooltip="https://blog.csdn.net/qq_39422642/article/details/78988976"/>
+    <hyperlink ref="B38" r:id="rId1" display="https://blog.csdn.net/qq_39422642/article/details/78988976" tooltip="https://blog.csdn.net/qq_39422642/article/details/78988976"/>
     <hyperlink ref="B33" r:id="rId2" display="数组中重复的数字" tooltip="https://leetcode-cn.com/problems/shu-zu-zhong-zhong-fu-de-shu-zi-lcof"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4029,24 +4115,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B2" s="1">
         <v>3.169</v>

--- a/NewChance/常见算法.20210425204046766.xlsx
+++ b/NewChance/常见算法.20210425204046766.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">常见算法0419!$A$1:$C$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">常见算法0419!$A$1:$C$74</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="142">
   <si>
     <t>#1047 删除字符串中的所有相邻重复项</t>
   </si>
@@ -515,6 +515,23 @@
       </rPr>
       <t>中二分查找</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的平方跟</t>
+    </r>
+  </si>
+  <si>
+    <t>二分查找只需要比较0-x中间元素 mid 的平方与 x 的大小关系，并通过比较的结果调整上下界的范围</t>
   </si>
   <si>
     <t>滑动窗口</t>
@@ -2061,9 +2078,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -2080,6 +2097,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -2090,12 +2113,6 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2119,13 +2136,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2149,55 +2251,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2208,9 +2264,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2218,45 +2273,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2343,7 +2360,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2355,7 +2378,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2367,97 +2420,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2475,7 +2444,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2487,43 +2534,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2601,39 +2618,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2652,18 +2636,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2684,16 +2672,45 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2705,10 +2722,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2717,137 +2734,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2875,34 +2892,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2920,10 +2934,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3260,233 +3274,233 @@
   </cols>
   <sheetData>
     <row r="2" ht="17.75" spans="1:3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="17.75" spans="1:3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" ht="17.75" spans="1:3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" ht="17.75" spans="1:3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" ht="17.75" spans="1:3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" ht="17.75" spans="1:3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" ht="17.75" spans="1:3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" ht="17.75" spans="1:3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" ht="17.75" spans="1:3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" ht="17.75" spans="1:3">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" ht="17.75" spans="1:3">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" ht="17.75" spans="1:3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" ht="17.75" spans="1:3">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" ht="17.75" spans="1:3">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" ht="17.75" spans="1:3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" ht="17.75" spans="1:3">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" ht="17.75" spans="1:3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" ht="17.75" spans="1:3">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" ht="17.75" spans="1:3">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="25" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" ht="17.75" spans="1:3">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" ht="17.75" spans="1:3">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="25" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3522,10 +3536,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -3630,24 +3644,24 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" ht="14.5" spans="1:3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" ht="58" spans="1:3">
-      <c r="A12" s="4" t="s">
+    <row r="11" ht="28" spans="1:3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C11" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="5" t="s">
+    </row>
+    <row r="12" ht="14.5" spans="1:3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" ht="58" spans="1:3">
+      <c r="A13" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" ht="14.5" spans="1:3">
-      <c r="A13" s="7"/>
       <c r="B13" s="5" t="s">
         <v>58</v>
       </c>
@@ -3656,165 +3670,165 @@
       </c>
     </row>
     <row r="14" ht="14.5" spans="1:3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="9" t="s">
+    </row>
+    <row r="15" ht="14.5" spans="1:3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" ht="14.5" spans="1:3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" ht="29" spans="1:3">
+    <row r="17" ht="14.5" spans="1:3">
       <c r="A17" s="6"/>
-      <c r="B17" s="11"/>
+      <c r="B17" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="C17" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" ht="14.5" spans="1:3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" ht="29" spans="1:3">
       <c r="A18" s="6"/>
-      <c r="B18" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="B18" s="13"/>
       <c r="C18" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="19" ht="14.5" spans="1:3">
       <c r="A19" s="6"/>
-      <c r="B19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="C19" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" ht="28.5" spans="1:3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" ht="14.5" spans="1:3">
       <c r="A20" s="6"/>
-      <c r="B20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" ht="28.5" spans="1:3">
       <c r="A21" s="6"/>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" ht="14.5" spans="1:3">
+    <row r="22" spans="1:3">
       <c r="A22" s="6"/>
-      <c r="B22" s="12"/>
+      <c r="B22" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="C22" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" ht="14.5" spans="1:3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="5"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="5" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="24" ht="14.5" spans="1:3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" ht="14.5" spans="1:3">
-      <c r="A25" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" ht="14.5" spans="1:3">
+      <c r="A26" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="26" ht="14.5" spans="1:3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="C26" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" ht="14.5" spans="1:3">
       <c r="A27" s="6"/>
-      <c r="B27" s="12" t="s">
-        <v>79</v>
-      </c>
+      <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="28" ht="14.5" spans="1:3">
       <c r="A28" s="6"/>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="5" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="29" ht="14.5" spans="1:3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="14" t="s">
-        <v>82</v>
+      <c r="A29" s="6"/>
+      <c r="B29" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="C29" s="5"/>
     </row>
     <row r="30" ht="14.5" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" ht="14.5" spans="1:3">
-      <c r="A31" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="5" t="s">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" ht="14.5" spans="1:3">
+      <c r="A32" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="5"/>
+      <c r="B32" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="C32" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="6"/>
-      <c r="B33" s="5" t="s">
-        <v>87</v>
-      </c>
+      <c r="B33" s="5"/>
       <c r="C33" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" ht="14.5" spans="1:3">
-      <c r="A34" s="7"/>
+    <row r="34" spans="1:3">
+      <c r="A34" s="6"/>
       <c r="B34" s="5" t="s">
         <v>89</v>
       </c>
@@ -3824,208 +3838,208 @@
     </row>
     <row r="35" ht="14.5" spans="1:3">
       <c r="A35" s="7"/>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="36" ht="14.5" spans="1:3">
-      <c r="A36" s="15"/>
-      <c r="B36" s="13" t="s">
+      <c r="A36" s="7"/>
+      <c r="B36" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="13"/>
+      <c r="C36" s="10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="37" ht="14.5" spans="1:3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" ht="29" spans="1:3">
-      <c r="A38" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B38" s="5" t="s">
+      <c r="A37" s="7"/>
+      <c r="B37" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="5"/>
-    </row>
-    <row r="39" ht="14.5" spans="1:3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+      <c r="C37" s="10"/>
+    </row>
+    <row r="38" ht="14.5" spans="1:3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" ht="29" spans="1:3">
+      <c r="A39" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="5"/>
     </row>
     <row r="40" ht="14.5" spans="1:3">
-      <c r="A40" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="5" t="s">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" ht="14.5" spans="1:3">
+      <c r="A41" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="41" ht="14.5" spans="1:3">
-      <c r="A41" s="6"/>
       <c r="B41" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="5"/>
+      <c r="C41" s="5" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="42" ht="14.5" spans="1:3">
       <c r="A42" s="6"/>
       <c r="B42" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C42" s="5"/>
     </row>
-    <row r="43" ht="14.5" spans="1:4">
+    <row r="43" ht="14.5" spans="1:3">
       <c r="A43" s="6"/>
-      <c r="B43" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="5" t="s">
+      <c r="B43" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D43" t="s">
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" ht="14.5" spans="1:4">
+      <c r="A44" s="6"/>
+      <c r="B44" s="10" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="44" ht="14.5" spans="1:3">
-      <c r="A44" s="17"/>
-      <c r="B44" s="13" t="s">
+      <c r="C44" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="5"/>
+      <c r="D44" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="45" ht="14.5" spans="1:3">
-      <c r="A45" s="3"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="3"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="5"/>
     </row>
     <row r="46" ht="14.5" spans="1:3">
-      <c r="A46" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" s="5" t="s">
+      <c r="A46" s="3"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" ht="14.5" spans="1:3">
+      <c r="A47" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="6"/>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="18" t="s">
         <v>108</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="48" ht="14.5" spans="1:3">
+    <row r="48" spans="1:3">
       <c r="A48" s="6"/>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="49" ht="14.5" spans="1:3">
       <c r="A49" s="6"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="20" t="s">
+      <c r="B49" s="18" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="C49" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" ht="14.5" spans="1:3">
       <c r="A50" s="6"/>
-      <c r="B50" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" ht="14.5" spans="1:3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="12"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="6"/>
+      <c r="B51" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="C51" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" ht="14.5" spans="1:3">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="21"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="5" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="53" ht="14.5" spans="1:3">
-      <c r="A53" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C53" s="13" t="s">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="20"/>
+    </row>
+    <row r="54" ht="14.5" spans="1:3">
+      <c r="A54" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="6"/>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="10" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="23" t="s">
+      <c r="A55" s="6"/>
+      <c r="B55" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="21" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="56" ht="14.5" spans="1:3">
+    <row r="56" spans="1:3">
       <c r="A56" s="7"/>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="21" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="57" ht="14.5" spans="1:3">
-      <c r="A57" s="15"/>
-      <c r="B57" s="23" t="s">
+      <c r="A57" s="7"/>
+      <c r="B57" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="22"/>
+      <c r="C57" s="21" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="58" ht="14.5" spans="1:3">
-      <c r="A58" s="3"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="3"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" s="21"/>
     </row>
     <row r="59" ht="14.5" spans="1:3">
-      <c r="A59" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C59" s="5" t="s">
+      <c r="A59" s="3"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" ht="14.5" spans="1:3">
+      <c r="A60" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="60" ht="14.5" spans="1:3">
-      <c r="A60" s="7"/>
       <c r="B60" s="5" t="s">
         <v>126</v>
       </c>
@@ -4034,63 +4048,72 @@
       </c>
     </row>
     <row r="61" ht="14.5" spans="1:3">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="24" t="s">
+      <c r="A61" s="7"/>
+      <c r="B61" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="C61" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C62" s="13" t="s">
+    </row>
+    <row r="62" ht="14.5" spans="1:3">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="23" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="63" ht="14.5" spans="1:3">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="24" t="s">
+      <c r="B63" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B64" s="25" t="s">
+      <c r="C63" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C64" s="25" t="s">
+    </row>
+    <row r="64" ht="14.5" spans="1:3">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="23" t="s">
         <v>133</v>
       </c>
+      <c r="B65" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>135</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C73">
+  <autoFilter ref="A1:C74">
     <extLst/>
   </autoFilter>
   <mergeCells count="17">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:A23"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B38" r:id="rId1" display="https://blog.csdn.net/qq_39422642/article/details/78988976" tooltip="https://blog.csdn.net/qq_39422642/article/details/78988976"/>
-    <hyperlink ref="B33" r:id="rId2" display="数组中重复的数字" tooltip="https://leetcode-cn.com/problems/shu-zu-zhong-zhong-fu-de-shu-zi-lcof"/>
+    <hyperlink ref="B39" r:id="rId1" display="https://blog.csdn.net/qq_39422642/article/details/78988976" tooltip="https://blog.csdn.net/qq_39422642/article/details/78988976"/>
+    <hyperlink ref="B34" r:id="rId2" display="数组中重复的数字" tooltip="https://leetcode-cn.com/problems/shu-zu-zhong-zhong-fu-de-shu-zi-lcof"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
@@ -4115,24 +4138,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B2" s="1">
         <v>3.169</v>

--- a/NewChance/常见算法.20210425204046766.xlsx
+++ b/NewChance/常见算法.20210425204046766.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="146">
   <si>
     <t>#1047 删除字符串中的所有相邻重复项</t>
   </si>
@@ -518,6 +518,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>x</t>
     </r>
     <r>
@@ -2069,7 +2075,19 @@
     <t>4月26</t>
   </si>
   <si>
+    <t>4月27</t>
+  </si>
+  <si>
+    <t>4月28</t>
+  </si>
+  <si>
+    <t>4月29</t>
+  </si>
+  <si>
     <t>基金净值</t>
+  </si>
+  <si>
+    <t>持有份额</t>
   </si>
 </sst>
 </file>
@@ -2077,10 +2095,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -2142,9 +2160,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2159,14 +2190,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2174,55 +2198,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2257,15 +2233,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2273,7 +2243,55 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2360,19 +2378,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2384,37 +2444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2426,7 +2456,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2444,7 +2474,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2456,91 +2552,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2617,21 +2635,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2656,21 +2659,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2686,11 +2674,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2714,6 +2708,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2722,10 +2740,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2734,137 +2752,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2872,6 +2890,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2891,9 +2915,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3274,233 +3295,233 @@
   </cols>
   <sheetData>
     <row r="2" ht="17.75" spans="1:3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="26" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="17.75" spans="1:3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" ht="17.75" spans="1:3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" ht="17.75" spans="1:3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" ht="17.75" spans="1:3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" ht="17.75" spans="1:3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" ht="17.75" spans="1:3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" ht="17.75" spans="1:3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="26" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" ht="17.75" spans="1:3">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" ht="17.75" spans="1:3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" ht="17.75" spans="1:3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" ht="17.75" spans="1:3">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="26" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" ht="17.75" spans="1:3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="26" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" ht="17.75" spans="1:3">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" ht="17.75" spans="1:3">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" ht="17.75" spans="1:3">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" ht="17.75" spans="1:3">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" ht="17.75" spans="1:3">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="26" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" ht="17.75" spans="1:3">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="26" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" ht="17.75" spans="1:3">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="26" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" ht="17.75" spans="1:3">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="26" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3539,24 +3560,24 @@
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="22.1818181818182" style="2" customWidth="1"/>
-    <col min="2" max="2" width="37.3636363636364" style="2" customWidth="1"/>
-    <col min="3" max="3" width="73.5454545454545" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.1818181818182" style="4" customWidth="1"/>
+    <col min="2" max="2" width="37.3636363636364" style="4" customWidth="1"/>
+    <col min="3" max="3" width="73.5454545454545" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.5" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D1" t="s">
@@ -3564,353 +3585,353 @@
       </c>
     </row>
     <row r="2" ht="28" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" ht="14.5" spans="1:3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" ht="28" spans="1:3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" ht="14.5" spans="1:3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" ht="28" spans="1:3">
       <c r="A11" s="9"/>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" ht="14.5" spans="1:3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" ht="58" spans="1:3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" ht="14.5" spans="1:3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" ht="14.5" spans="1:3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="17" ht="14.5" spans="1:3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="18" ht="29" spans="1:3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="5" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="19" ht="14.5" spans="1:3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="20" ht="14.5" spans="1:3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21" ht="28.5" spans="1:3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="14" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="23" ht="14.5" spans="1:3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="5" t="s">
+      <c r="A23" s="8"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="24" ht="14.5" spans="1:3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="7"/>
     </row>
     <row r="25" ht="14.5" spans="1:3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" ht="14.5" spans="1:3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="27" ht="14.5" spans="1:3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5" t="s">
+      <c r="A27" s="8"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="28" ht="14.5" spans="1:3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="14" t="s">
+      <c r="A28" s="8"/>
+      <c r="B28" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="29" ht="14.5" spans="1:3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="10" t="s">
+      <c r="A29" s="8"/>
+      <c r="B29" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="7"/>
     </row>
     <row r="30" ht="14.5" spans="1:3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="5"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" ht="14.5" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" ht="14.5" spans="1:3">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5" t="s">
+      <c r="A33" s="8"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="5" t="s">
+      <c r="A34" s="8"/>
+      <c r="B34" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="35" ht="14.5" spans="1:3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="5" t="s">
+      <c r="A35" s="9"/>
+      <c r="B35" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="36" ht="14.5" spans="1:3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="10" t="s">
+      <c r="A36" s="9"/>
+      <c r="B36" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="37" ht="14.5" spans="1:3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="10" t="s">
+      <c r="A37" s="9"/>
+      <c r="B37" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="10"/>
+      <c r="C37" s="11"/>
     </row>
     <row r="38" ht="14.5" spans="1:3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" ht="29" spans="1:3">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="5"/>
+      <c r="C39" s="7"/>
     </row>
     <row r="40" ht="14.5" spans="1:3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
     </row>
     <row r="41" ht="14.5" spans="1:3">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="42" ht="14.5" spans="1:3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="5" t="s">
+      <c r="A42" s="8"/>
+      <c r="B42" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="5"/>
+      <c r="C42" s="7"/>
     </row>
     <row r="43" ht="14.5" spans="1:3">
-      <c r="A43" s="6"/>
-      <c r="B43" s="5" t="s">
+      <c r="A43" s="8"/>
+      <c r="B43" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="5"/>
+      <c r="C43" s="7"/>
     </row>
     <row r="44" ht="14.5" spans="1:4">
-      <c r="A44" s="6"/>
-      <c r="B44" s="10" t="s">
+      <c r="A44" s="8"/>
+      <c r="B44" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="7" t="s">
         <v>104</v>
       </c>
       <c r="D44" t="s">
@@ -3918,173 +3939,173 @@
       </c>
     </row>
     <row r="45" ht="14.5" spans="1:3">
-      <c r="A45" s="6"/>
-      <c r="B45" s="10" t="s">
+      <c r="A45" s="8"/>
+      <c r="B45" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="5"/>
+      <c r="C45" s="7"/>
     </row>
     <row r="46" ht="14.5" spans="1:3">
-      <c r="A46" s="3"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="3"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="5"/>
     </row>
     <row r="47" ht="14.5" spans="1:3">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="6"/>
-      <c r="B48" s="18" t="s">
+      <c r="A48" s="8"/>
+      <c r="B48" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="49" ht="14.5" spans="1:3">
-      <c r="A49" s="6"/>
-      <c r="B49" s="18" t="s">
+      <c r="A49" s="8"/>
+      <c r="B49" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="20" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="50" ht="14.5" spans="1:3">
-      <c r="A50" s="6"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19" t="s">
+      <c r="A50" s="8"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="20" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="6"/>
-      <c r="B51" s="14" t="s">
+      <c r="A51" s="8"/>
+      <c r="B51" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="52" ht="14.5" spans="1:3">
-      <c r="A52" s="7"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="5" t="s">
+      <c r="A52" s="9"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="53" ht="14.5" spans="1:3">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="20"/>
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="21"/>
     </row>
     <row r="54" ht="14.5" spans="1:3">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="11" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="6"/>
-      <c r="B55" s="21" t="s">
+      <c r="A55" s="8"/>
+      <c r="B55" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="22" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="7"/>
-      <c r="B56" s="22" t="s">
+      <c r="A56" s="9"/>
+      <c r="B56" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="22" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="57" ht="14.5" spans="1:3">
-      <c r="A57" s="7"/>
-      <c r="B57" s="22" t="s">
+      <c r="A57" s="9"/>
+      <c r="B57" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="22" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="58" ht="14.5" spans="1:3">
-      <c r="A58" s="7"/>
-      <c r="B58" s="22" t="s">
+      <c r="A58" s="9"/>
+      <c r="B58" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="21"/>
+      <c r="C58" s="22"/>
     </row>
     <row r="59" ht="14.5" spans="1:3">
-      <c r="A59" s="3"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="3"/>
+      <c r="A59" s="5"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="5"/>
     </row>
     <row r="60" ht="14.5" spans="1:3">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="61" ht="14.5" spans="1:3">
-      <c r="A61" s="7"/>
-      <c r="B61" s="5" t="s">
+      <c r="A61" s="9"/>
+      <c r="B61" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="62" ht="14.5" spans="1:3">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="11" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="64" ht="14.5" spans="1:3">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="B65" s="24" t="s">
+      <c r="B65" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="24" t="s">
+      <c r="C65" s="25" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4124,41 +4145,81 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="10.5454545454545" customWidth="1"/>
-    <col min="2" max="2" width="8.72727272727273" style="1"/>
+    <col min="2" max="2" width="12.8181818181818" style="3"/>
+    <col min="8" max="8" width="12.8181818181818"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="F1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="1">
+      <c r="G1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="3">
         <v>3.169</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3.14</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.189</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3.232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3185.01</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="2:8">
+      <c r="B6" s="3"/>
+      <c r="F6" s="2">
+        <v>10000</v>
+      </c>
+      <c r="G6" s="2">
+        <v>10157</v>
+      </c>
+      <c r="H6" s="3">
+        <f>B4*H2</f>
+        <v>10293.95232</v>
       </c>
     </row>
   </sheetData>

--- a/NewChance/常见算法.20210425204046766.xlsx
+++ b/NewChance/常见算法.20210425204046766.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7130" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="149">
   <si>
     <t>#1047 删除字符串中的所有相邻重复项</t>
   </si>
@@ -2084,10 +2084,19 @@
     <t>4月29</t>
   </si>
   <si>
+    <t>4月30</t>
+  </si>
+  <si>
     <t>基金净值</t>
   </si>
   <si>
+    <t>估算净值</t>
+  </si>
+  <si>
     <t>持有份额</t>
+  </si>
+  <si>
+    <t>持有收益</t>
   </si>
 </sst>
 </file>
@@ -2097,8 +2106,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -2161,6 +2170,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2168,66 +2184,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2243,7 +2200,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2273,9 +2252,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2292,6 +2278,29 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2378,6 +2387,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2390,13 +2417,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2408,13 +2465,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2426,7 +2477,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2438,43 +2525,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2486,43 +2555,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2534,31 +2567,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2637,6 +2646,41 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -2659,52 +2703,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2724,11 +2727,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2740,10 +2749,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2752,7 +2761,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2761,133 +2770,130 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3295,233 +3301,233 @@
   </cols>
   <sheetData>
     <row r="2" ht="17.75" spans="1:3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="17.75" spans="1:3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" ht="17.75" spans="1:3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" ht="17.75" spans="1:3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" ht="17.75" spans="1:3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" ht="17.75" spans="1:3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" ht="17.75" spans="1:3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" ht="17.75" spans="1:3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" ht="17.75" spans="1:3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" ht="17.75" spans="1:3">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" ht="17.75" spans="1:3">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" ht="17.75" spans="1:3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" ht="17.75" spans="1:3">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" ht="17.75" spans="1:3">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" ht="17.75" spans="1:3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" ht="17.75" spans="1:3">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" ht="17.75" spans="1:3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" ht="17.75" spans="1:3">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" ht="17.75" spans="1:3">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="25" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" ht="17.75" spans="1:3">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" ht="17.75" spans="1:3">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="25" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3559,25 +3565,25 @@
   <sheetPr/>
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="22.1818181818182" style="4" customWidth="1"/>
-    <col min="2" max="2" width="37.3636363636364" style="4" customWidth="1"/>
-    <col min="3" max="3" width="73.5454545454545" style="4" customWidth="1"/>
+    <col min="1" max="1" width="22.1818181818182" style="3" customWidth="1"/>
+    <col min="2" max="2" width="37.3636363636364" style="3" customWidth="1"/>
+    <col min="3" max="3" width="73.5454545454545" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.5" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D1" t="s">
@@ -3585,353 +3591,353 @@
       </c>
     </row>
     <row r="2" ht="28" spans="1:3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" ht="14.5" spans="1:3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" ht="28" spans="1:3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" ht="14.5" spans="1:3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" ht="28" spans="1:3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" ht="14.5" spans="1:3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" ht="58" spans="1:3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" ht="14.5" spans="1:3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" ht="14.5" spans="1:3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="17" ht="14.5" spans="1:3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="18" ht="29" spans="1:3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="7" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="19" ht="14.5" spans="1:3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="20" ht="14.5" spans="1:3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21" ht="28.5" spans="1:3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="15" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="23" ht="14.5" spans="1:3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="7" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="24" ht="14.5" spans="1:3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="7" t="s">
+      <c r="A24" s="8"/>
+      <c r="B24" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="7"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" ht="14.5" spans="1:3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" ht="14.5" spans="1:3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="27" ht="14.5" spans="1:3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7" t="s">
+      <c r="A27" s="7"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="28" ht="14.5" spans="1:3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="15" t="s">
+      <c r="A28" s="7"/>
+      <c r="B28" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="29" ht="14.5" spans="1:3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="11" t="s">
+      <c r="A29" s="7"/>
+      <c r="B29" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="7"/>
+      <c r="C29" s="6"/>
     </row>
     <row r="30" ht="14.5" spans="1:3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="16" t="s">
+      <c r="A30" s="8"/>
+      <c r="B30" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="7"/>
+      <c r="C30" s="6"/>
     </row>
     <row r="31" ht="14.5" spans="1:3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" ht="14.5" spans="1:3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7" t="s">
+      <c r="A33" s="7"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="7" t="s">
+      <c r="A34" s="7"/>
+      <c r="B34" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="35" ht="14.5" spans="1:3">
-      <c r="A35" s="9"/>
-      <c r="B35" s="7" t="s">
+      <c r="A35" s="8"/>
+      <c r="B35" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="36" ht="14.5" spans="1:3">
-      <c r="A36" s="9"/>
-      <c r="B36" s="11" t="s">
+      <c r="A36" s="8"/>
+      <c r="B36" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="37" ht="14.5" spans="1:3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="11" t="s">
+      <c r="A37" s="8"/>
+      <c r="B37" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="11"/>
+      <c r="C37" s="10"/>
     </row>
     <row r="38" ht="14.5" spans="1:3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" ht="29" spans="1:3">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="7"/>
+      <c r="C39" s="6"/>
     </row>
     <row r="40" ht="14.5" spans="1:3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
     </row>
     <row r="41" ht="14.5" spans="1:3">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="42" ht="14.5" spans="1:3">
-      <c r="A42" s="8"/>
-      <c r="B42" s="7" t="s">
+      <c r="A42" s="7"/>
+      <c r="B42" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="7"/>
+      <c r="C42" s="6"/>
     </row>
     <row r="43" ht="14.5" spans="1:3">
-      <c r="A43" s="8"/>
-      <c r="B43" s="7" t="s">
+      <c r="A43" s="7"/>
+      <c r="B43" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="7"/>
+      <c r="C43" s="6"/>
     </row>
     <row r="44" ht="14.5" spans="1:4">
-      <c r="A44" s="8"/>
-      <c r="B44" s="11" t="s">
+      <c r="A44" s="7"/>
+      <c r="B44" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>104</v>
       </c>
       <c r="D44" t="s">
@@ -3939,173 +3945,173 @@
       </c>
     </row>
     <row r="45" ht="14.5" spans="1:3">
-      <c r="A45" s="8"/>
-      <c r="B45" s="11" t="s">
+      <c r="A45" s="7"/>
+      <c r="B45" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="7"/>
+      <c r="C45" s="6"/>
     </row>
     <row r="46" ht="14.5" spans="1:3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="5"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="4"/>
     </row>
     <row r="47" ht="14.5" spans="1:3">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="6" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="8"/>
-      <c r="B48" s="19" t="s">
+      <c r="A48" s="7"/>
+      <c r="B48" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="49" ht="14.5" spans="1:3">
-      <c r="A49" s="8"/>
-      <c r="B49" s="19" t="s">
+      <c r="A49" s="7"/>
+      <c r="B49" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="19" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="50" ht="14.5" spans="1:3">
-      <c r="A50" s="8"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20" t="s">
+      <c r="A50" s="7"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="8"/>
-      <c r="B51" s="15" t="s">
+      <c r="A51" s="7"/>
+      <c r="B51" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="52" ht="14.5" spans="1:3">
-      <c r="A52" s="9"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="7" t="s">
+      <c r="A52" s="8"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="53" ht="14.5" spans="1:3">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="21"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="20"/>
     </row>
     <row r="54" ht="14.5" spans="1:3">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="10" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="8"/>
-      <c r="B55" s="22" t="s">
+      <c r="A55" s="7"/>
+      <c r="B55" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="21" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="9"/>
-      <c r="B56" s="23" t="s">
+      <c r="A56" s="8"/>
+      <c r="B56" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="21" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="57" ht="14.5" spans="1:3">
-      <c r="A57" s="9"/>
-      <c r="B57" s="23" t="s">
+      <c r="A57" s="8"/>
+      <c r="B57" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C57" s="21" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="58" ht="14.5" spans="1:3">
-      <c r="A58" s="9"/>
-      <c r="B58" s="23" t="s">
+      <c r="A58" s="8"/>
+      <c r="B58" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="22"/>
+      <c r="C58" s="21"/>
     </row>
     <row r="59" ht="14.5" spans="1:3">
-      <c r="A59" s="5"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="5"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="4"/>
     </row>
     <row r="60" ht="14.5" spans="1:3">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="61" ht="14.5" spans="1:3">
-      <c r="A61" s="9"/>
-      <c r="B61" s="7" t="s">
+      <c r="A61" s="8"/>
+      <c r="B61" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="6" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="62" ht="14.5" spans="1:3">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="10" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="64" ht="14.5" spans="1:3">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="24" t="s">
+      <c r="A65" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="24" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4145,81 +4151,103 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="10.5454545454545" customWidth="1"/>
-    <col min="2" max="2" width="12.8181818181818" style="3"/>
-    <col min="8" max="8" width="12.8181818181818"/>
+    <col min="2" max="2" width="12.8181818181818" style="1"/>
+    <col min="8" max="9" width="12.8181818181818"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>143</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="3">
+        <v>145</v>
+      </c>
+      <c r="B2" s="1">
         <v>3.169</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>3.14</v>
       </c>
       <c r="G2" s="1">
         <v>3.189</v>
       </c>
       <c r="H2" s="1">
+        <v>3.242</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="2">
         <v>3.232</v>
+      </c>
+      <c r="I3" s="2">
+        <v>3.2278</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" s="3">
+        <v>147</v>
+      </c>
+      <c r="B4" s="1">
         <v>3185.01</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="2:8">
-      <c r="B6" s="3"/>
-      <c r="F6" s="2">
+    <row r="6" s="1" customFormat="1" spans="6:9">
+      <c r="F6" s="1">
         <v>10000</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>10157</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="1">
         <f>B4*H2</f>
-        <v>10293.95232</v>
+        <v>10325.80242</v>
+      </c>
+      <c r="I6" s="1">
+        <f>B4*I3</f>
+        <v>10280.575278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
